--- a/mcmaster_excel/Steel_High-Profile_Narrow_Fillister_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/Steel_High-Profile_Narrow_Fillister_Head_Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,119 +434,89 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Tensile Strength, psi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.183"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.107"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Tensile Strength, psi</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>90280A839</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>$22.30</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -566,7 +536,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -581,12 +551,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>90280A106</t>
+          <t>90280A839</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>$22.30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -603,7 +573,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -638,12 +608,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>90280A108</t>
+          <t>90280A106</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -660,7 +630,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -680,7 +650,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -695,12 +665,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>90280A110</t>
+          <t>90280A108</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -717,7 +687,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -747,17 +717,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>90280A841</t>
+          <t>90280A110</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -774,7 +744,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -784,17 +754,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.226"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.107"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -804,22 +774,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>90280A144</t>
+          <t>90280A841</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -831,7 +801,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -851,7 +821,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -866,12 +836,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>90280A145</t>
+          <t>90280A144</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -888,7 +858,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -908,7 +878,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -923,12 +893,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>90280A146</t>
+          <t>90280A145</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>18.50</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -945,7 +915,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -965,7 +935,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -980,12 +950,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>90280A148</t>
+          <t>90280A146</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1002,7 +972,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1037,12 +1007,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>90280A150</t>
+          <t>90280A148</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>13.65</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1059,7 +1029,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1094,12 +1064,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>90280A151</t>
+          <t>90280A150</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1116,7 +1086,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1151,12 +1121,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>90280A153</t>
+          <t>90280A151</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1173,7 +1143,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1183,12 +1153,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.226"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1208,17 +1178,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>90280A190</t>
+          <t>90280A153</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1230,7 +1200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1265,12 +1235,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>90280A191</t>
+          <t>90280A190</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1287,7 +1257,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1322,12 +1292,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>90280A192</t>
+          <t>90280A191</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1344,7 +1314,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1379,12 +1349,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>90280A194</t>
+          <t>90280A192</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1401,7 +1371,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1436,12 +1406,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>90280A196</t>
+          <t>90280A194</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1458,7 +1428,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1493,12 +1463,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>90280A197</t>
+          <t>90280A196</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1515,7 +1485,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1550,12 +1520,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>90280A199</t>
+          <t>90280A197</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1572,7 +1542,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1607,12 +1577,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>90280A201</t>
+          <t>90280A199</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1629,7 +1599,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1664,12 +1634,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>90280A203</t>
+          <t>90280A201</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1686,7 +1656,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1696,12 +1666,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.156"</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1721,17 +1691,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>90280A240</t>
+          <t>90280A203</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1743,7 +1713,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1778,12 +1748,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>90280A242</t>
+          <t>90280A240</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1800,7 +1770,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1835,12 +1805,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>90280A245</t>
+          <t>90280A242</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1857,7 +1827,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1892,12 +1862,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>90280A247</t>
+          <t>90280A245</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1914,7 +1884,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1949,12 +1919,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>90280A251</t>
+          <t>90280A247</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>14.90</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1971,7 +1941,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2001,17 +1971,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>90280A253</t>
+          <t>90280A251</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2028,7 +1998,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2058,22 +2028,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>90280A825</t>
+          <t>90280A253</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2085,7 +2055,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2120,12 +2090,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>90280A827</t>
+          <t>90280A825</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2142,7 +2112,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2177,12 +2147,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>90280A829</t>
+          <t>90280A827</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2199,7 +2169,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2234,12 +2204,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>90280A830</t>
+          <t>90280A829</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2256,7 +2226,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2291,12 +2261,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>90280A831</t>
+          <t>90280A830</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2313,7 +2283,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2348,12 +2318,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>90280A833</t>
+          <t>90280A831</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>14.89</t>
+          <t>9.62</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2370,7 +2340,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2405,12 +2375,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>90280A835</t>
+          <t>90280A833</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>12.07</t>
+          <t>14.89</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2427,7 +2397,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2462,12 +2432,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>90280A836</t>
+          <t>90280A835</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>13.51</t>
+          <t>12.07</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2484,7 +2454,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2514,17 +2484,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>90280A837</t>
+          <t>90280A836</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>13.27</t>
+          <t>13.51</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2541,7 +2511,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2576,12 +2546,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>90280A838</t>
+          <t>90280A837</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>13.27</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2598,7 +2568,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2608,12 +2578,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.357"</t>
+          <t>0.313"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.205"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2628,22 +2598,22 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>90280A291</t>
+          <t>90280A838</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>12-24</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2655,7 +2625,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2690,12 +2660,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>90280A294</t>
+          <t>90280A291</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2712,7 +2682,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2747,12 +2717,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>90280A296</t>
+          <t>90280A294</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>13.26</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2769,7 +2739,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2799,17 +2769,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>90280A298</t>
+          <t>90280A296</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>13.26</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2826,7 +2796,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2856,17 +2826,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>90280A299</t>
+          <t>90280A298</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>13.98</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2883,7 +2853,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2918,12 +2888,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>90280A301</t>
+          <t>90280A299</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>16.94</t>
+          <t>13.98</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2940,7 +2910,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2950,12 +2920,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.414"</t>
+          <t>0.357"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.237"</t>
+          <t>0.205"</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2970,22 +2940,22 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>90280A537</t>
+          <t>90280A301</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>13.08</t>
+          <t>16.94</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>12-24</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2997,7 +2967,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3032,12 +3002,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>90280A539</t>
+          <t>90280A537</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>14.05</t>
+          <t>13.08</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3054,7 +3024,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3089,12 +3059,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>90280A540</t>
+          <t>90280A539</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>14.05</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3111,7 +3081,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3146,12 +3116,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>90280A542</t>
+          <t>90280A540</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>17.16</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3168,7 +3138,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3198,17 +3168,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>90280A544</t>
+          <t>90280A542</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>12.88</t>
+          <t>17.16</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3225,7 +3195,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3260,12 +3230,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>90280A546</t>
+          <t>90280A544</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>14.74</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3282,7 +3252,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3312,17 +3282,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>90280A550</t>
+          <t>90280A546</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>14.58</t>
+          <t>14.74</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3339,7 +3309,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3369,17 +3339,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>90280A555</t>
+          <t>90280A550</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>11.74</t>
+          <t>14.58</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3396,7 +3366,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3406,12 +3376,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.518"</t>
+          <t>0.414"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.295"</t>
+          <t>0.237"</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3426,22 +3396,22 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>90280A581</t>
+          <t>90280A555</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>14.45</t>
+          <t>11.74</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3453,55 +3423,112 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.518"</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.295"</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>90280A581</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>1"</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>0.518"</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>0.295"</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>90280A583</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>9.56</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
